--- a/NformTester/NformTester/Keywordscripts/600.20.20.70_TabOrderonWriteDataActionProPertiesWindow.xlsx
+++ b/NformTester/NformTester/Keywordscripts/600.20.20.70_TabOrderonWriteDataActionProPertiesWindow.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="15" windowWidth="15480" windowHeight="11640"/>
@@ -1209,7 +1209,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7293" uniqueCount="813">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7292" uniqueCount="812">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3659,10 +3659,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">;add write data action and verify the tab order of the window </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3678,11 +3674,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7-25</t>
+    <t>"{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}{Tab}"</t>
+    <t>;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4664,8 +4660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4797,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>197</v>
@@ -4887,7 +4883,7 @@
         <v>6</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
@@ -4905,9 +4901,7 @@
       <c r="A8" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>811</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="5">
         <v>7</v>
       </c>
@@ -5098,10 +5092,10 @@
         <v>7</v>
       </c>
       <c r="H14" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="I14" s="11" t="s">
         <v>808</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>809</v>
       </c>
       <c r="J14" s="20" t="b">
         <v>1</v>
@@ -5133,7 +5127,7 @@
         <v>3</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
@@ -5164,10 +5158,10 @@
         <v>7</v>
       </c>
       <c r="H16" s="11" t="s">
+        <v>807</v>
+      </c>
+      <c r="I16" s="11" t="s">
         <v>808</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>809</v>
       </c>
       <c r="J16" s="20" t="b">
         <v>1</v>
@@ -5276,7 +5270,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
